--- a/data/hotels_by_city/Dallas/Dallas_shard_615.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_615.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,463 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r465701100-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>55922</t>
+  </si>
+  <si>
+    <t>106996</t>
+  </si>
+  <si>
+    <t>465701100</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Do not book here the girl at the front desk is so RUDE.i called and it rang forever before she picked up ..</t>
+  </si>
+  <si>
+    <t>No friendly service she was rude and told me she could not cancel my reservation..will not ever stay there Find something else.....anywhere will be better than the service here and will probably have better service than I got..</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r445877296-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>445877296</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t>Extremely Enjoyable Place To Stay</t>
+  </si>
+  <si>
+    <t>My wife and I spent two nights here. The room was very clean and neat. It appeared to have been updated recently. It was a quiet room and just plain enjoyable. The free breakfast was very good and as good or better than others I've had. We would not hesitate to stay at this hotel again. The General Manager Pritesh Patel was just outstanding and accommodating. We were there for a retirement. That evening we had a small gathering at the hotel, and Ms Patel provided us with the conference room. How thoughtful and considerate. Thank you Ms Patel!!!</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r423067455-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>423067455</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfortunate </t>
+  </si>
+  <si>
+    <t>The A/C was not on the the room when we entered so my wife went over to turn it on.  When she went to turn it on she found a lot of mold growing in the vents.  We told the front desk they promptly gave us another room.  When we checked the mold was worse in the second room's A/C than the first.  The desk clerk came up to the room and we showed him the mold.  He blame housekeeping and offered us a third room.  This time we did not find mold so we accepted the room.  However as the night went on when began to smell the scent of mold.  Unfortunate because the staff was very friendly and accommodating.  If they can fix their mold issue, this is not a bad place to stay for the price and local if you are needing to visit Grand Prairie, TX.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The A/C was not on the the room when we entered so my wife went over to turn it on.  When she went to turn it on she found a lot of mold growing in the vents.  We told the front desk they promptly gave us another room.  When we checked the mold was worse in the second room's A/C than the first.  The desk clerk came up to the room and we showed him the mold.  He blame housekeeping and offered us a third room.  This time we did not find mold so we accepted the room.  However as the night went on when began to smell the scent of mold.  Unfortunate because the staff was very friendly and accommodating.  If they can fix their mold issue, this is not a bad place to stay for the price and local if you are needing to visit Grand Prairie, TX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r373844215-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>373844215</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>visiting the area for job interviews</t>
+  </si>
+  <si>
+    <t>I was incredibly disappointed with this hotel. I specifically chose to stay here because it had a 4 1/2 star rating and I was expecting to be wowed. I work at a hotel so I know what to look for and I didn't experience it here. The hotel was clean and so was my room but those are basic necessities. The staff was competent but not exactly friendly. At best this is a 3 star hotel and thats ok but not what I wanted.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r365619724-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>365619724</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Needs Updating</t>
+  </si>
+  <si>
+    <t>I know you haven't heard from me in awhile, however I had to send you an update. I am really disappointed at this hotel. Good location However I can see why this place doesn't get much business. Rooms need to be updated and smell better, for the individual or family trying to stay in fit there is no gym here. The up keep around the area is clean for the most part however management really needs to take a look at renovations that will bring more business. Choice members not a go in my book.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r365375588-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>365375588</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Clean and Super Friendly</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel for 5 nights and were very satisfied. All the different people who worked the front desk while we were there were extra friendly and helpful. The place is older but very clean and well kept. The breakfast is OK. Waffles, eggs, sausage, pastries, etc. We were lazy one day and left the room after noon which we were told was too late to get it cleaned that day. We understood since we stayed in really late. When we came back we were happily surprised that they did clean our room even after the regular cleaning hours. We recommend the hotel and would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel for 5 nights and were very satisfied. All the different people who worked the front desk while we were there were extra friendly and helpful. The place is older but very clean and well kept. The breakfast is OK. Waffles, eggs, sausage, pastries, etc. We were lazy one day and left the room after noon which we were told was too late to get it cleaned that day. We understood since we stayed in really late. When we came back we were happily surprised that they did clean our room even after the regular cleaning hours. We recommend the hotel and would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r343551194-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>343551194</t>
+  </si>
+  <si>
+    <t>01/29/2016</t>
+  </si>
+  <si>
+    <t>Smelly &amp; Noisy</t>
+  </si>
+  <si>
+    <t>It got such good reviews, so we booked there.  Won't again.  First off the carpets smelled so strongly of a perfumed cleaner that it was hard to stay in the room.  When we tried to sleep, there was constant noise of water running in the wall behind our heads, and a TV going all night long in the room next door.  The pillows were so overstuffed my neck hurt the next day.  Not a comfortable, quiet place in any way.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r338546221-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>338546221</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t>Happy to stay in this clean, friendly Quality Inn</t>
+  </si>
+  <si>
+    <t>Grand Prarie Quality Inn is a nice place to stay. Our room was clean and comfortable, the staff is friendly, and having complimentary breakfast (both hot and cold options available; i.e., yogurt, fresh fruit, cereal, scrambled eggs, sausage, etc) is a bonus!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r330610618-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>330610618</t>
+  </si>
+  <si>
+    <t>12/03/2015</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed her for my first four nights in America after traveling from New Zealand, the staff were very helpful I had lots of questions about where to find things in town etc, I had an upstairs room but there is no elevator. The bed was nice but the pillows were a little small ( compaired to NZ) . The breakfast was pretty good ,plenty of parking, used the washer and dryer and ice machine there too, overall a good stay and good value for money </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r293772000-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>293772000</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Good value.</t>
+  </si>
+  <si>
+    <t>Staff nice and helpful. Updated inside and breakfast is okay. Only downside is outside has trash all over the yard and parking lot. Someone needs to be assigned to outside maintenance. Close to restaurants and shopping.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r291408224-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>291408224</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Not a bad stay</t>
+  </si>
+  <si>
+    <t>My job gave me a hotel voucher so I stayed here on them. It wasn't a bad stay. They need to do a better job of upkeep.The 2nd floor ice machine didn't work and the carpets need cleaning. The "hot" breakfast was warm at best. Luckily there are restaurants in the immediate area. The desk clerk Anthony was very nice and did a great job at check in. Overall, it was an average motel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r286554545-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>286554545</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Great hotel for $</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the hotel I stay in every time I have to be in the DFW area for business. It's centrally located to the tollway and 361. The staff is friendly and always helpful.  Food is walking distance and shopping and optional dining is just a short drive.  I highly recommend this hotel.  The halls, breakfast area and lobby are recently remodeled.  They will soon begin repainting the outside and will begin reworking  the rooms.  It is very clean and has a nice pool.  It is also quiet for being right off the interstate. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r267304511-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>267304511</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>Exceptional Value</t>
+  </si>
+  <si>
+    <t>The property was super clean and inviting - lobby, room, breakfast area, and grounds.  The room itself was very large and comfortable. The front desk staff were very personable and helpful.  Breakfast was standard fare but very good.  Many fast food and nice restaurants nearby.  Reasonably priced for this area. Recommend this inn.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r236986650-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>236986650</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>Don't be fooled by pictures or reviews, this is a 2 star hotel.</t>
+  </si>
+  <si>
+    <t>This hotel is rated as a 2 star hotel and that is exactly correct.  This is not to say that it is necessarily a bad hotel when compared to other 2 star hotels, it's just not any better. I normally stay at the Days Inn, but the Days Inn in Grand Prairie had such bad reviews I went looking elsewhere.  This Quality Inn had the highest user review rating of any sub $100 a night hotel in the area, so I decided to try it, even though it was $20 more a night then the Days Inn. Plus, the pictures here on TA were very impressive and gave me the impression that the hotel was really nice. 
+The first thing that tipped me off that I had been fooled was when I pulled into the driveway. The parking area was dimly lit and borders a dark dense forest and the first thing you see when you pull in is a sign that says (in big letters) "PARK AT YOUR OWN RISK". There is no fence between the forest and the parking area so anyone could just come out of the woods and vandalize your car without being seen. 
+Another problem with the parking area is that it only has one access which is to a side street that has a concrete medium and that leads into a residential area and away from the interstate and the commercial areas you want...This hotel is rated as a 2 star hotel and that is exactly correct.  This is not to say that it is necessarily a bad hotel when compared to other 2 star hotels, it's just not any better. I normally stay at the Days Inn, but the Days Inn in Grand Prairie had such bad reviews I went looking elsewhere.  This Quality Inn had the highest user review rating of any sub $100 a night hotel in the area, so I decided to try it, even though it was $20 more a night then the Days Inn. Plus, the pictures here on TA were very impressive and gave me the impression that the hotel was really nice. The first thing that tipped me off that I had been fooled was when I pulled into the driveway. The parking area was dimly lit and borders a dark dense forest and the first thing you see when you pull in is a sign that says (in big letters) "PARK AT YOUR OWN RISK". There is no fence between the forest and the parking area so anyone could just come out of the woods and vandalize your car without being seen. Another problem with the parking area is that it only has one access which is to a side street that has a concrete medium and that leads into a residential area and away from the interstate and the commercial areas you want to go to. So you are forced to make a right and drive a good ways down into the residential area and try to find a place that is wide enough (narrow street) to make a U-turn or make a block. Once I got inside I realized that photos I had seen on TA were photoshoped professional pictures to make the dining area seem a lot bigger then it actually is. It is actually about what I am used to at the Days Inn. When I got to the room is when I trully realized just how much I had been fooled. Even though the room was listed as non smoking, there was a definite musty smoke smell when I walked into the room. When I turned on the lights I immediately noticed cigarette burn holes in the bed spred. There was also a large knife slash in the bed spred as well. The bed itself was one of the most uncomfortable beds I have ever laid on. Both me and my son could not sleep on it at all and woke up with back pain in the middle of the night. I spent the rest of the night awake sitting on the couch that was in the room. Among other things, the bathroom door would not latch and my room key did not work most of the time; but the one thing that really surpised me was the wall paint color. Can you believe "Canary Yellow"? I felt like I had gone back in time to the 60s or maybe was in a cheap motel down in Mexico. Come on guys, at least update the paint job.And last but not least was the free breakfast, which many reviewers raved about and was the main thing that convinced me to spend $20 extra a night.  Well, it is just your normal run of your mill continental breakfast that you will get anywhere else, with the addition of eggs and sausage sticks. But honestly,  the sausage sticks tasted like they were made from artificial meat and the eggs tasted like they were made from reconstituted powdered dehydrated eggs. I am not saying that it was worse then any other budget hotel, just that it is not anything special that sets this hotel apart fron any other hotel like Days Inn, Comfort Inn, etc.Okay, now for the few good things about this hotel. The bathroom was nice and felt modern. The shower was roomy and nice. There was a nice office table and plush swivel rolling office chair. The hide-a-bed couch was a nice addition (King room. Not sure if they have this in the double queen rooms). The room also had a large size compact fridge and a microwave.The bottom line is, this a standard run of the mill budget hotel which caters to the traveling budget business class. Quality might be in the name, but that is where it stops.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This hotel is rated as a 2 star hotel and that is exactly correct.  This is not to say that it is necessarily a bad hotel when compared to other 2 star hotels, it's just not any better. I normally stay at the Days Inn, but the Days Inn in Grand Prairie had such bad reviews I went looking elsewhere.  This Quality Inn had the highest user review rating of any sub $100 a night hotel in the area, so I decided to try it, even though it was $20 more a night then the Days Inn. Plus, the pictures here on TA were very impressive and gave me the impression that the hotel was really nice. 
+The first thing that tipped me off that I had been fooled was when I pulled into the driveway. The parking area was dimly lit and borders a dark dense forest and the first thing you see when you pull in is a sign that says (in big letters) "PARK AT YOUR OWN RISK". There is no fence between the forest and the parking area so anyone could just come out of the woods and vandalize your car without being seen. 
+Another problem with the parking area is that it only has one access which is to a side street that has a concrete medium and that leads into a residential area and away from the interstate and the commercial areas you want...This hotel is rated as a 2 star hotel and that is exactly correct.  This is not to say that it is necessarily a bad hotel when compared to other 2 star hotels, it's just not any better. I normally stay at the Days Inn, but the Days Inn in Grand Prairie had such bad reviews I went looking elsewhere.  This Quality Inn had the highest user review rating of any sub $100 a night hotel in the area, so I decided to try it, even though it was $20 more a night then the Days Inn. Plus, the pictures here on TA were very impressive and gave me the impression that the hotel was really nice. The first thing that tipped me off that I had been fooled was when I pulled into the driveway. The parking area was dimly lit and borders a dark dense forest and the first thing you see when you pull in is a sign that says (in big letters) "PARK AT YOUR OWN RISK". There is no fence between the forest and the parking area so anyone could just come out of the woods and vandalize your car without being seen. Another problem with the parking area is that it only has one access which is to a side street that has a concrete medium and that leads into a residential area and away from the interstate and the commercial areas you want to go to. So you are forced to make a right and drive a good ways down into the residential area and try to find a place that is wide enough (narrow street) to make a U-turn or make a block. Once I got inside I realized that photos I had seen on TA were photoshoped professional pictures to make the dining area seem a lot bigger then it actually is. It is actually about what I am used to at the Days Inn. When I got to the room is when I trully realized just how much I had been fooled. Even though the room was listed as non smoking, there was a definite musty smoke smell when I walked into the room. When I turned on the lights I immediately noticed cigarette burn holes in the bed spred. There was also a large knife slash in the bed spred as well. The bed itself was one of the most uncomfortable beds I have ever laid on. Both me and my son could not sleep on it at all and woke up with back pain in the middle of the night. I spent the rest of the night awake sitting on the couch that was in the room. Among other things, the bathroom door would not latch and my room key did not work most of the time; but the one thing that really surpised me was the wall paint color. Can you believe "Canary Yellow"? I felt like I had gone back in time to the 60s or maybe was in a cheap motel down in Mexico. Come on guys, at least update the paint job.And last but not least was the free breakfast, which many reviewers raved about and was the main thing that convinced me to spend $20 extra a night.  Well, it is just your normal run of your mill continental breakfast that you will get anywhere else, with the addition of eggs and sausage sticks. But honestly,  the sausage sticks tasted like they were made from artificial meat and the eggs tasted like they were made from reconstituted powdered dehydrated eggs. I am not saying that it was worse then any other budget hotel, just that it is not anything special that sets this hotel apart fron any other hotel like Days Inn, Comfort Inn, etc.Okay, now for the few good things about this hotel. The bathroom was nice and felt modern. The shower was roomy and nice. There was a nice office table and plush swivel rolling office chair. The hide-a-bed couch was a nice addition (King room. Not sure if they have this in the double queen rooms). The room also had a large size compact fridge and a microwave.The bottom line is, this a standard run of the mill budget hotel which caters to the traveling budget business class. Quality might be in the name, but that is where it stops.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r225734246-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>225734246</t>
+  </si>
+  <si>
+    <t>08/31/2014</t>
+  </si>
+  <si>
+    <t>Friendly and attentive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed for 1 week.  Nice room, clean and has all the amenities you need. Hospitality was amazing. One feature that always is needed. Washer and dryer. Even though this hotel was used during Katrina to help those without homes, it has been remodeled. Nice, clean and great hospitality. </t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r211265514-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>211265514</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>You won't be disappointed!</t>
+  </si>
+  <si>
+    <t>We traveled to Grand Prairie, TX from our home in Colorado to attend the funeral of my wife's mom. Naturally, all were on edge given the circumstances. When we arrived at the Quality Inn on Monday evening, the check-in was smooth and courteous, For the next 3 days, everyone that we encountered could not have been more helpful and friendly. We certainly needed that! We used to live in Grand Prairie and it was good to be back "home". Good people work at the Quality Inn &amp; Suites, They have a great complimentary breakfast that adds to the enjoyment. Don't think twice about choosing this hotel. YOU WON'T BE DISAPPOINTED!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>We traveled to Grand Prairie, TX from our home in Colorado to attend the funeral of my wife's mom. Naturally, all were on edge given the circumstances. When we arrived at the Quality Inn on Monday evening, the check-in was smooth and courteous, For the next 3 days, everyone that we encountered could not have been more helpful and friendly. We certainly needed that! We used to live in Grand Prairie and it was good to be back "home". Good people work at the Quality Inn &amp; Suites, They have a great complimentary breakfast that adds to the enjoyment. Don't think twice about choosing this hotel. YOU WON'T BE DISAPPOINTED!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r208122003-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>208122003</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our room was roomy and clean. The bathroom was a nice size also. But the towels were a little small. Our overall stay was very good. We will definitely use this hotel again when we are in the Arlington area. </t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r202331999-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>202331999</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>Easy to freeway was important since I was traveling w/a toddler late at nite. Parking lot well lighted. All rooms are accessed only thru the main lobby. Desk clerk gave me room near front desk so I did not have to travel far to locate room. Room very clean and air conditioner worked. Breakfast was more like a full breakfast w/eggs (scrambled &amp; boiled) and sausage along w/usual breakfast fare. Only downfall was problems w/online reservation which took a while to clear up and could not get a copy of my bill at checkup-clerk reported the system was blocking her from doing that.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r149598793-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>149598793</t>
+  </si>
+  <si>
+    <t>01/13/2013</t>
+  </si>
+  <si>
+    <t>Average, reasonable motel with friendly service</t>
+  </si>
+  <si>
+    <t>Older motel, but clean overall. The staff were friendly, but we were apprehensive about an employee we saw smoking something in his car prior to his shift when we got there. We only stayed one night due to a quick trip to Six Flags. Has a fridge, microwave, and free continental breakfast.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r148162281-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>148162281</t>
+  </si>
+  <si>
+    <t>12/27/2012</t>
+  </si>
+  <si>
+    <t>Very good, except for dirty carpet</t>
+  </si>
+  <si>
+    <t>Front desk, housekeeping and breakfast bar were all very good.  The property was well kept and bathroom clean and comfortable beds.  We stayed for four nights while visiting relatives and this was our third time at this hotel.  It is a two story building without an elevator.  The only problem we discovered was the very dirty carpet, which became apparent when you get in the shower after walking barefoot on the carpet and the dirt washes off in the shower.  The room also has a sofa and nice work desk and 32" flat screen tv.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r130768474-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>130768474</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>Surprised</t>
+  </si>
+  <si>
+    <t>The hotel decor was a bit much, but once getting past appearances we found the hotel to be clean, quiet, and comfortable.  The bed felt like my own, the bathroom was in great shape, and even though the hotel was full, I heard no one.  Cynthia and the rest of the staff do a great job.  I liked having a fridge, coffee maker, and microwave in the room also.  About the only negative thing was the fact that my friend and I had to share a king bed even though we booked a double room.  Verify your reservations before you arrive.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r80022951-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>80022951</t>
+  </si>
+  <si>
+    <t>09/18/2010</t>
+  </si>
+  <si>
+    <t>FILTHY CONDITIONS!!!</t>
+  </si>
+  <si>
+    <t>Woke up to "BED BUGS" and upon turning the linen back on the bed, found a heavily "SOILED" mattress pad that we had slept on all night!!!!</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r48197542-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>48197542</t>
+  </si>
+  <si>
+    <t>10/31/2009</t>
+  </si>
+  <si>
+    <t>Can't trust the workers...</t>
+  </si>
+  <si>
+    <t>First let me start by saying that my stay at your hotel at 3891 South Great Southwest Parkway, Grand Prairie TX was a good one.  I was there (10-15-09 thru 10-18-09) with two other couples.  We had a very good visit to the Dallas metro area.  BUT I will probably not be staying at THAT hotel or any other Quality Inn Suites ever again!  Not because the stay was not good or not because there wasn't an elevator or not because the breakfast wasn't any good!  The only reason is that the YOUR STAFF doesn't know and apparently doesn't care to tell me the truth about what happen to the items that I had left in my room(225) and that they SAID they were going to ship them to me.  I had left a reading book and a notebook there that Sunday morning (10-18-09).  When I called back on Monday(10-19-09) and ask about the items, they told me that house keeping had brought  the items to the front desk and asked how I wanted to pick them up?  I live in North LIttle Rock, AR and I needed them to shipped to me.  I called FedX and they said that the hotel had to be the one to call and set up the pick-up.  So called back and spoke with a nice young lady name Stephanie who took my credit card information, name and phone number.  She assured me that...First let me start by saying that my stay at your hotel at 3891 South Great Southwest Parkway, Grand Prairie TX was a good one.  I was there (10-15-09 thru 10-18-09) with two other couples.  We had a very good visit to the Dallas metro area.  BUT I will probably not be staying at THAT hotel or any other Quality Inn Suites ever again!  Not because the stay was not good or not because there wasn't an elevator or not because the breakfast wasn't any good!  The only reason is that the YOUR STAFF doesn't know and apparently doesn't care to tell me the truth about what happen to the items that I had left in my room(225) and that they SAID they were going to ship them to me.  I had left a reading book and a notebook there that Sunday morning (10-18-09).  When I called back on Monday(10-19-09) and ask about the items, they told me that house keeping had brought  the items to the front desk and asked how I wanted to pick them up?  I live in North LIttle Rock, AR and I needed them to shipped to me.  I called FedX and they said that the hotel had to be the one to call and set up the pick-up.  So called back and spoke with a nice young lady name Stephanie who took my credit card information, name and phone number.  She assured me that I would probably get the package in about three days.  I have called back several times inquiring about my stuff and no one knows anything and always says someone else will call me back but they never do.  They always know the items by name, but don't know what happen to them.  They don't know when they were shipped or if they were shipped.  It's now Saturday (10-31-09) and I still DON'T have my things and no one has called and told me anything about them!!  Ralph L. Nelson [--]  RNelson@littlerock.orgMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>First let me start by saying that my stay at your hotel at 3891 South Great Southwest Parkway, Grand Prairie TX was a good one.  I was there (10-15-09 thru 10-18-09) with two other couples.  We had a very good visit to the Dallas metro area.  BUT I will probably not be staying at THAT hotel or any other Quality Inn Suites ever again!  Not because the stay was not good or not because there wasn't an elevator or not because the breakfast wasn't any good!  The only reason is that the YOUR STAFF doesn't know and apparently doesn't care to tell me the truth about what happen to the items that I had left in my room(225) and that they SAID they were going to ship them to me.  I had left a reading book and a notebook there that Sunday morning (10-18-09).  When I called back on Monday(10-19-09) and ask about the items, they told me that house keeping had brought  the items to the front desk and asked how I wanted to pick them up?  I live in North LIttle Rock, AR and I needed them to shipped to me.  I called FedX and they said that the hotel had to be the one to call and set up the pick-up.  So called back and spoke with a nice young lady name Stephanie who took my credit card information, name and phone number.  She assured me that...First let me start by saying that my stay at your hotel at 3891 South Great Southwest Parkway, Grand Prairie TX was a good one.  I was there (10-15-09 thru 10-18-09) with two other couples.  We had a very good visit to the Dallas metro area.  BUT I will probably not be staying at THAT hotel or any other Quality Inn Suites ever again!  Not because the stay was not good or not because there wasn't an elevator or not because the breakfast wasn't any good!  The only reason is that the YOUR STAFF doesn't know and apparently doesn't care to tell me the truth about what happen to the items that I had left in my room(225) and that they SAID they were going to ship them to me.  I had left a reading book and a notebook there that Sunday morning (10-18-09).  When I called back on Monday(10-19-09) and ask about the items, they told me that house keeping had brought  the items to the front desk and asked how I wanted to pick them up?  I live in North LIttle Rock, AR and I needed them to shipped to me.  I called FedX and they said that the hotel had to be the one to call and set up the pick-up.  So called back and spoke with a nice young lady name Stephanie who took my credit card information, name and phone number.  She assured me that I would probably get the package in about three days.  I have called back several times inquiring about my stuff and no one knows anything and always says someone else will call me back but they never do.  They always know the items by name, but don't know what happen to them.  They don't know when they were shipped or if they were shipped.  It's now Saturday (10-31-09) and I still DON'T have my things and no one has called and told me anything about them!!  Ralph L. Nelson [--]  RNelson@littlerock.orgMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r7709839-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>7709839</t>
+  </si>
+  <si>
+    <t>05/27/2007</t>
+  </si>
+  <si>
+    <t>OK for what we needed</t>
+  </si>
+  <si>
+    <t>In town for the weekend for a high school graduation.  The hotel is close to many fast food restaurants, and right off the Interstate.  Service was ok.  We asked for an extra pillow and blanket and housekeeping gave us a bedspread not a blanket.  Beds are incredibly firm!</t>
+  </si>
+  <si>
+    <t>May 2007</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1102,1486 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>131</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>85</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s">
+        <v>168</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>174</v>
+      </c>
+      <c r="O22" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" t="s">
+        <v>179</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s">
+        <v>185</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
+        <v>131</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" t="s">
+        <v>192</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>193</v>
+      </c>
+      <c r="O25" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_615.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_615.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>980mistif</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Ward H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r445877296-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Juan V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r423067455-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>The A/C was not on the the room when we entered so my wife went over to turn it on.  When she went to turn it on she found a lot of mold growing in the vents.  We told the front desk they promptly gave us another room.  When we checked the mold was worse in the second room's A/C than the first.  The desk clerk came up to the room and we showed him the mold.  He blame housekeeping and offered us a third room.  This time we did not find mold so we accepted the room.  However as the night went on when began to smell the scent of mold.  Unfortunate because the staff was very friendly and accommodating.  If they can fix their mold issue, this is not a bad place to stay for the price and local if you are needing to visit Grand Prairie, TX.More</t>
   </si>
   <si>
+    <t>Joy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r373844215-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Vision293</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r365619724-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Jaybirdrob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r365375588-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>My wife and I stayed at this hotel for 5 nights and were very satisfied. All the different people who worked the front desk while we were there were extra friendly and helpful. The place is older but very clean and well kept. The breakfast is OK. Waffles, eggs, sausage, pastries, etc. We were lazy one day and left the room after noon which we were told was too late to get it cleaned that day. We understood since we stayed in really late. When we came back we were happily surprised that they did clean our room even after the regular cleaning hours. We recommend the hotel and would stay there again.More</t>
   </si>
   <si>
+    <t>ChrisAndBron</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r343551194-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Alicia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r338546221-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t>Grand Prarie Quality Inn is a nice place to stay. Our room was clean and comfortable, the staff is friendly, and having complimentary breakfast (both hot and cold options available; i.e., yogurt, fresh fruit, cereal, scrambled eggs, sausage, etc) is a bonus!</t>
   </si>
   <si>
+    <t>TravelingMatt426</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r330610618-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -327,6 +354,9 @@
     <t xml:space="preserve">I stayed her for my first four nights in America after traveling from New Zealand, the staff were very helpful I had lots of questions about where to find things in town etc, I had an upstairs room but there is no elevator. The bed was nice but the pillows were a little small ( compaired to NZ) . The breakfast was pretty good ,plenty of parking, used the washer and dryer and ice machine there too, overall a good stay and good value for money </t>
   </si>
   <si>
+    <t>Geary M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r293772000-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -345,6 +375,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Jay L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r291408224-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -360,6 +393,9 @@
     <t>My job gave me a hotel voucher so I stayed here on them. It wasn't a bad stay. They need to do a better job of upkeep.The 2nd floor ice machine didn't work and the carpets need cleaning. The "hot" breakfast was warm at best. Luckily there are restaurants in the immediate area. The desk clerk Anthony was very nice and did a great job at check in. Overall, it was an average motel.</t>
   </si>
   <si>
+    <t>photoclark</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r286554545-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -375,6 +411,9 @@
     <t xml:space="preserve">This is the hotel I stay in every time I have to be in the DFW area for business. It's centrally located to the tollway and 361. The staff is friendly and always helpful.  Food is walking distance and shopping and optional dining is just a short drive.  I highly recommend this hotel.  The halls, breakfast area and lobby are recently remodeled.  They will soon begin repainting the outside and will begin reworking  the rooms.  It is very clean and has a nice pool.  It is also quiet for being right off the interstate. </t>
   </si>
   <si>
+    <t>bobe2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r267304511-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -391,6 +430,9 @@
   </si>
   <si>
     <t>April 2015</t>
+  </si>
+  <si>
+    <t>Vongof70</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r236986650-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
@@ -421,6 +463,9 @@
 Another problem with the parking area is that it only has one access which is to a side street that has a concrete medium and that leads into a residential area and away from the interstate and the commercial areas you want...This hotel is rated as a 2 star hotel and that is exactly correct.  This is not to say that it is necessarily a bad hotel when compared to other 2 star hotels, it's just not any better. I normally stay at the Days Inn, but the Days Inn in Grand Prairie had such bad reviews I went looking elsewhere.  This Quality Inn had the highest user review rating of any sub $100 a night hotel in the area, so I decided to try it, even though it was $20 more a night then the Days Inn. Plus, the pictures here on TA were very impressive and gave me the impression that the hotel was really nice. The first thing that tipped me off that I had been fooled was when I pulled into the driveway. The parking area was dimly lit and borders a dark dense forest and the first thing you see when you pull in is a sign that says (in big letters) "PARK AT YOUR OWN RISK". There is no fence between the forest and the parking area so anyone could just come out of the woods and vandalize your car without being seen. Another problem with the parking area is that it only has one access which is to a side street that has a concrete medium and that leads into a residential area and away from the interstate and the commercial areas you want to go to. So you are forced to make a right and drive a good ways down into the residential area and try to find a place that is wide enough (narrow street) to make a U-turn or make a block. Once I got inside I realized that photos I had seen on TA were photoshoped professional pictures to make the dining area seem a lot bigger then it actually is. It is actually about what I am used to at the Days Inn. When I got to the room is when I trully realized just how much I had been fooled. Even though the room was listed as non smoking, there was a definite musty smoke smell when I walked into the room. When I turned on the lights I immediately noticed cigarette burn holes in the bed spred. There was also a large knife slash in the bed spred as well. The bed itself was one of the most uncomfortable beds I have ever laid on. Both me and my son could not sleep on it at all and woke up with back pain in the middle of the night. I spent the rest of the night awake sitting on the couch that was in the room. Among other things, the bathroom door would not latch and my room key did not work most of the time; but the one thing that really surpised me was the wall paint color. Can you believe "Canary Yellow"? I felt like I had gone back in time to the 60s or maybe was in a cheap motel down in Mexico. Come on guys, at least update the paint job.And last but not least was the free breakfast, which many reviewers raved about and was the main thing that convinced me to spend $20 extra a night.  Well, it is just your normal run of your mill continental breakfast that you will get anywhere else, with the addition of eggs and sausage sticks. But honestly,  the sausage sticks tasted like they were made from artificial meat and the eggs tasted like they were made from reconstituted powdered dehydrated eggs. I am not saying that it was worse then any other budget hotel, just that it is not anything special that sets this hotel apart fron any other hotel like Days Inn, Comfort Inn, etc.Okay, now for the few good things about this hotel. The bathroom was nice and felt modern. The shower was roomy and nice. There was a nice office table and plush swivel rolling office chair. The hide-a-bed couch was a nice addition (King room. Not sure if they have this in the double queen rooms). The room also had a large size compact fridge and a microwave.The bottom line is, this a standard run of the mill budget hotel which caters to the traveling budget business class. Quality might be in the name, but that is where it stops.More</t>
   </si>
   <si>
+    <t>nachoywanda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r225734246-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -439,6 +484,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>BH1951</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r211265514-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -460,6 +508,9 @@
     <t>We traveled to Grand Prairie, TX from our home in Colorado to attend the funeral of my wife's mom. Naturally, all were on edge given the circumstances. When we arrived at the Quality Inn on Monday evening, the check-in was smooth and courteous, For the next 3 days, everyone that we encountered could not have been more helpful and friendly. We certainly needed that! We used to live in Grand Prairie and it was good to be back "home". Good people work at the Quality Inn &amp; Suites, They have a great complimentary breakfast that adds to the enjoyment. Don't think twice about choosing this hotel. YOU WON'T BE DISAPPOINTED!More</t>
   </si>
   <si>
+    <t>Caroline M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r208122003-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -478,6 +529,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Geneve M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r202331999-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -496,6 +550,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Moses123456</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r149598793-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -514,6 +571,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>Richard J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r148162281-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -529,6 +589,9 @@
     <t>Front desk, housekeeping and breakfast bar were all very good.  The property was well kept and bathroom clean and comfortable beds.  We stayed for four nights while visiting relatives and this was our third time at this hotel.  It is a two story building without an elevator.  The only problem we discovered was the very dirty carpet, which became apparent when you get in the shower after walking barefoot on the carpet and the dirt washes off in the shower.  The room also has a sofa and nice work desk and 32" flat screen tv.</t>
   </si>
   <si>
+    <t>linfin11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r130768474-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -547,6 +610,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>J-Thang</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r80022951-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -565,6 +631,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>usmclape</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r48197542-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -584,6 +653,9 @@
   </si>
   <si>
     <t>First let me start by saying that my stay at your hotel at 3891 South Great Southwest Parkway, Grand Prairie TX was a good one.  I was there (10-15-09 thru 10-18-09) with two other couples.  We had a very good visit to the Dallas metro area.  BUT I will probably not be staying at THAT hotel or any other Quality Inn Suites ever again!  Not because the stay was not good or not because there wasn't an elevator or not because the breakfast wasn't any good!  The only reason is that the YOUR STAFF doesn't know and apparently doesn't care to tell me the truth about what happen to the items that I had left in my room(225) and that they SAID they were going to ship them to me.  I had left a reading book and a notebook there that Sunday morning (10-18-09).  When I called back on Monday(10-19-09) and ask about the items, they told me that house keeping had brought  the items to the front desk and asked how I wanted to pick them up?  I live in North LIttle Rock, AR and I needed them to shipped to me.  I called FedX and they said that the hotel had to be the one to call and set up the pick-up.  So called back and spoke with a nice young lady name Stephanie who took my credit card information, name and phone number.  She assured me that...First let me start by saying that my stay at your hotel at 3891 South Great Southwest Parkway, Grand Prairie TX was a good one.  I was there (10-15-09 thru 10-18-09) with two other couples.  We had a very good visit to the Dallas metro area.  BUT I will probably not be staying at THAT hotel or any other Quality Inn Suites ever again!  Not because the stay was not good or not because there wasn't an elevator or not because the breakfast wasn't any good!  The only reason is that the YOUR STAFF doesn't know and apparently doesn't care to tell me the truth about what happen to the items that I had left in my room(225) and that they SAID they were going to ship them to me.  I had left a reading book and a notebook there that Sunday morning (10-18-09).  When I called back on Monday(10-19-09) and ask about the items, they told me that house keeping had brought  the items to the front desk and asked how I wanted to pick them up?  I live in North LIttle Rock, AR and I needed them to shipped to me.  I called FedX and they said that the hotel had to be the one to call and set up the pick-up.  So called back and spoke with a nice young lady name Stephanie who took my credit card information, name and phone number.  She assured me that I would probably get the package in about three days.  I have called back several times inquiring about my stuff and no one knows anything and always says someone else will call me back but they never do.  They always know the items by name, but don't know what happen to them.  They don't know when they were shipped or if they were shipped.  It's now Saturday (10-31-09) and I still DON'T have my things and no one has called and told me anything about them!!  Ralph L. Nelson [--]  RNelson@littlerock.orgMore</t>
+  </si>
+  <si>
+    <t>Lori Jeannine</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r7709839-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
@@ -1106,43 +1178,47 @@
       <c r="A2" t="n">
         <v>37694</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>173932</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1156,50 +1232,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37694</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>61786</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1219,50 +1299,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37694</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>70545</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1276,50 +1360,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37694</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>1436</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1339,50 +1427,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37694</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>173933</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1396,50 +1488,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37694</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>173934</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1457,50 +1553,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37694</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>173935</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1520,50 +1620,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37694</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>29854</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1581,41 +1685,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37694</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>173936</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
@@ -1634,50 +1742,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37694</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>173937</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -1695,50 +1807,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37694</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>44122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1752,50 +1868,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37694</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>173938</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>118</v>
       </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>108</v>
-      </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1809,50 +1929,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37694</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>173939</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1872,50 +1996,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37694</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>173940</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1929,50 +2057,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37694</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>173941</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="O16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -1986,50 +2118,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37694</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>173942</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2053,50 +2189,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37694</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>46028</v>
+      </c>
+      <c r="C18" t="s">
+        <v>162</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="O18" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2120,50 +2260,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37694</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>101573</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="J19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2187,50 +2331,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37694</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>173943</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="K20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="O20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -2254,50 +2402,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37694</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>14471</v>
+      </c>
+      <c r="C21" t="s">
+        <v>183</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="K21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2321,50 +2473,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37694</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>173944</v>
+      </c>
+      <c r="C22" t="s">
+        <v>189</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="K22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="O22" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -2388,50 +2544,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37694</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>173945</v>
+      </c>
+      <c r="C23" t="s">
+        <v>196</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="J23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="K23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2445,50 +2605,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37694</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>173946</v>
+      </c>
+      <c r="C24" t="s">
+        <v>203</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="J24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="O24" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -2512,50 +2676,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37694</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>173947</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="J25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="K25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -2579,7 +2747,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_615.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_615.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="289">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>980mistif</t>
-  </si>
-  <si>
-    <t>06/16/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r575873703-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>55922</t>
+  </si>
+  <si>
+    <t>106996</t>
+  </si>
+  <si>
+    <t>575873703</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown Circumstances </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although friendly receptionist, the establishment failed to disclose the building had no elevator. We had to haul our luggage two flights of stairs. Obvious water stains on the ceiling. Aside from that, the place seemed clean and the bed was comfortable. The AC worked like a charm.  To us, no elevator was a show stopper. We booked another hotel for the rest of our weekend. </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r490655338-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>490655338</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>State Bowling</t>
+  </si>
+  <si>
+    <t>Went to Grand Prairie for the State Women's bowling tournament. This hotel was quiet, the rooms were comfortable. Be aware it's only a two story building, so you have to walk up stairs for the second floor. All in all it was a good night's sleep, the beds are a bit hard, but everything was clean. The front desk was helpful, the clerk carried one of our bags upstairs for us, that was unexpected. The clerk at check out was very friendly. The breakfast was okay, hot coffee, juice, and assortment of pastries, yogurt, waffle maker, Sunday morning they had eggs and sausage.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r465701100-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
-    <t>55922</t>
-  </si>
-  <si>
-    <t>106996</t>
-  </si>
-  <si>
     <t>465701100</t>
   </si>
   <si>
@@ -180,9 +219,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Ward H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r445877296-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -201,12 +237,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Juan V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r423067455-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -231,7 +261,40 @@
     <t>The A/C was not on the the room when we entered so my wife went over to turn it on.  When she went to turn it on she found a lot of mold growing in the vents.  We told the front desk they promptly gave us another room.  When we checked the mold was worse in the second room's A/C than the first.  The desk clerk came up to the room and we showed him the mold.  He blame housekeeping and offered us a third room.  This time we did not find mold so we accepted the room.  However as the night went on when began to smell the scent of mold.  Unfortunate because the staff was very friendly and accommodating.  If they can fix their mold issue, this is not a bad place to stay for the price and local if you are needing to visit Grand Prairie, TX.More</t>
   </si>
   <si>
-    <t>Joy B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r406835241-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>406835241</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and room was nice and clean. I hate it did not have a elevator but only 2 floors.This hotel is located on a busy street but lots of  restaurants close by. I would recommend this hotel for a pleasant stay.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r376560997-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>376560997</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>perfect for jet lag recovery night stay</t>
+  </si>
+  <si>
+    <t>after 13 hours of flight from Korea, and about to drive to New Orleans needed an hotel just sleep and go, and this hotel perfectly matched with my needs with nice and very comfortable bed, bathroom and breakfast.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r373844215-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
@@ -249,12 +312,6 @@
     <t>I was incredibly disappointed with this hotel. I specifically chose to stay here because it had a 4 1/2 star rating and I was expecting to be wowed. I work at a hotel so I know what to look for and I didn't experience it here. The hotel was clean and so was my room but those are basic necessities. The staff was competent but not exactly friendly. At best this is a 3 star hotel and thats ok but not what I wanted.</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
-    <t>Vision293</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r365619724-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -273,9 +330,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>Jaybirdrob</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r365375588-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -297,7 +351,43 @@
     <t>My wife and I stayed at this hotel for 5 nights and were very satisfied. All the different people who worked the front desk while we were there were extra friendly and helpful. The place is older but very clean and well kept. The breakfast is OK. Waffles, eggs, sausage, pastries, etc. We were lazy one day and left the room after noon which we were told was too late to get it cleaned that day. We understood since we stayed in really late. When we came back we were happily surprised that they did clean our room even after the regular cleaning hours. We recommend the hotel and would stay there again.More</t>
   </si>
   <si>
-    <t>ChrisAndBron</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r351952565-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>351952565</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Nice older hotel</t>
+  </si>
+  <si>
+    <t>This hotel is older, but aging very well. It's 2-story with no elevator. Our room was clean &amp; the bed was comfortable. We had a King room with a sofa, but the TV was affixed to the wall in front of the bed, so you couldn't really see it from the sofa. And, there was no way to turn it. Anthony, at the front desk, was very friendly &amp; check-in went smoothly. He greeted us each time we came &amp; went &amp; asked how we were enjoying our stay &amp; did we need anything. We had an Even-numbered room &amp; those face the highway. It wasn't too bad, but we could hear the road noise. Breakfast was mediocre - waffles, eggs, sausage, &amp; cereal. The neighborhood is okay. There are apartments behind the hotel &amp; we felt pretty secure. There are a lot of restaurants close by, so plenty of choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>This hotel is older, but aging very well. It's 2-story with no elevator. Our room was clean &amp; the bed was comfortable. We had a King room with a sofa, but the TV was affixed to the wall in front of the bed, so you couldn't really see it from the sofa. And, there was no way to turn it. Anthony, at the front desk, was very friendly &amp; check-in went smoothly. He greeted us each time we came &amp; went &amp; asked how we were enjoying our stay &amp; did we need anything. We had an Even-numbered room &amp; those face the highway. It wasn't too bad, but we could hear the road noise. Breakfast was mediocre - waffles, eggs, sausage, &amp; cereal. The neighborhood is okay. There are apartments behind the hotel &amp; we felt pretty secure. There are a lot of restaurants close by, so plenty of choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r344526404-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>344526404</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Business Meeting/Couples</t>
+  </si>
+  <si>
+    <t>This is a very clean inn with wonderfully friendly and helpful people. It was also very quiet although surrounded by the city. It was close to everything we needed including restaurants and the municipal airport. The room was spacious with everything we needed from wifi to fridge to microwave and coffee maker as well as hot/cold breakfast.  Would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r343551194-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
@@ -315,12 +405,6 @@
     <t>It got such good reviews, so we booked there.  Won't again.  First off the carpets smelled so strongly of a perfumed cleaner that it was hard to stay in the room.  When we tried to sleep, there was constant noise of water running in the wall behind our heads, and a TV going all night long in the room next door.  The pillows were so overstuffed my neck hurt the next day.  Not a comfortable, quiet place in any way.</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
-    <t>Alicia C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r338546221-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -336,9 +420,6 @@
     <t>Grand Prarie Quality Inn is a nice place to stay. Our room was clean and comfortable, the staff is friendly, and having complimentary breakfast (both hot and cold options available; i.e., yogurt, fresh fruit, cereal, scrambled eggs, sausage, etc) is a bonus!</t>
   </si>
   <si>
-    <t>TravelingMatt426</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r330610618-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -354,7 +435,40 @@
     <t xml:space="preserve">I stayed her for my first four nights in America after traveling from New Zealand, the staff were very helpful I had lots of questions about where to find things in town etc, I had an upstairs room but there is no elevator. The bed was nice but the pillows were a little small ( compaired to NZ) . The breakfast was pretty good ,plenty of parking, used the washer and dryer and ice machine there too, overall a good stay and good value for money </t>
   </si>
   <si>
-    <t>Geary M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r314705788-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>314705788</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable!</t>
+  </si>
+  <si>
+    <t>A well-kept up hotel. The front desk management was courteous and polite, and very friendly. The room was a twin-bed, with a nice clean smell to it, more-than-adequate air for a Texas summer, the shower was nice and hot, and the breakfast was quite nice for a freebie - the sausage could have been cooked a bit longer, but that's just my preference.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r304631121-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>304631121</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>Nice choice near Dallas/Ft Worth and Stadiums</t>
+  </si>
+  <si>
+    <t>We stayed two nights to attend Baseball park game.  Both football and baseball park within 15 minutes.  Staff friendly and helpful upon check in.  Rooms clean and updated, as is lobby and hallways.  Room included fridge, coffee maker and iron.  This facility is located right off I-20 and near all shopping and food.Free wifi and good hot breakfast included.Would recommend and would stay again - reasonably priced.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r293772000-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
@@ -375,9 +489,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>Jay L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r291408224-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -393,9 +504,6 @@
     <t>My job gave me a hotel voucher so I stayed here on them. It wasn't a bad stay. They need to do a better job of upkeep.The 2nd floor ice machine didn't work and the carpets need cleaning. The "hot" breakfast was warm at best. Luckily there are restaurants in the immediate area. The desk clerk Anthony was very nice and did a great job at check in. Overall, it was an average motel.</t>
   </si>
   <si>
-    <t>photoclark</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r286554545-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -411,7 +519,37 @@
     <t xml:space="preserve">This is the hotel I stay in every time I have to be in the DFW area for business. It's centrally located to the tollway and 361. The staff is friendly and always helpful.  Food is walking distance and shopping and optional dining is just a short drive.  I highly recommend this hotel.  The halls, breakfast area and lobby are recently remodeled.  They will soon begin repainting the outside and will begin reworking  the rooms.  It is very clean and has a nice pool.  It is also quiet for being right off the interstate. </t>
   </si>
   <si>
-    <t>bobe2</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r277978047-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>277978047</t>
+  </si>
+  <si>
+    <t>06/04/2015</t>
+  </si>
+  <si>
+    <t>Good hotel for the price</t>
+  </si>
+  <si>
+    <t>Although the exterior and lobby were kind of plain, the room was nice and looked mostly new. The hotel was very quiet. There is no elevator, but it is just a 2-story hotel. The staff was friendly. The free breakfast included eggs, sausage, biscuits, waffles, bagels, pastries, yogurt, and juice. I would rate this hotel at the upper end of the 2-star hotel class and consider it hard to beat for the price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r274905189-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>274905189</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and clean</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, quite, and will stay again!!!  Love it! Perfect for the a visitor.  The hotel is located near the Dallas Cowboys AT&amp;T Stadium.  The breakfast was great and the staff is really friendly.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r267304511-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
@@ -430,9 +568,6 @@
   </si>
   <si>
     <t>April 2015</t>
-  </si>
-  <si>
-    <t>Vongof70</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r236986650-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
@@ -455,17 +590,11 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>This hotel is rated as a 2 star hotel and that is exactly correct.  This is not to say that it is necessarily a bad hotel when compared to other 2 star hotels, it's just not any better. I normally stay at the Days Inn, but the Days Inn in Grand Prairie had such bad reviews I went looking elsewhere.  This Quality Inn had the highest user review rating of any sub $100 a night hotel in the area, so I decided to try it, even though it was $20 more a night then the Days Inn. Plus, the pictures here on TA were very impressive and gave me the impression that the hotel was really nice. 
 The first thing that tipped me off that I had been fooled was when I pulled into the driveway. The parking area was dimly lit and borders a dark dense forest and the first thing you see when you pull in is a sign that says (in big letters) "PARK AT YOUR OWN RISK". There is no fence between the forest and the parking area so anyone could just come out of the woods and vandalize your car without being seen. 
 Another problem with the parking area is that it only has one access which is to a side street that has a concrete medium and that leads into a residential area and away from the interstate and the commercial areas you want...This hotel is rated as a 2 star hotel and that is exactly correct.  This is not to say that it is necessarily a bad hotel when compared to other 2 star hotels, it's just not any better. I normally stay at the Days Inn, but the Days Inn in Grand Prairie had such bad reviews I went looking elsewhere.  This Quality Inn had the highest user review rating of any sub $100 a night hotel in the area, so I decided to try it, even though it was $20 more a night then the Days Inn. Plus, the pictures here on TA were very impressive and gave me the impression that the hotel was really nice. The first thing that tipped me off that I had been fooled was when I pulled into the driveway. The parking area was dimly lit and borders a dark dense forest and the first thing you see when you pull in is a sign that says (in big letters) "PARK AT YOUR OWN RISK". There is no fence between the forest and the parking area so anyone could just come out of the woods and vandalize your car without being seen. Another problem with the parking area is that it only has one access which is to a side street that has a concrete medium and that leads into a residential area and away from the interstate and the commercial areas you want to go to. So you are forced to make a right and drive a good ways down into the residential area and try to find a place that is wide enough (narrow street) to make a U-turn or make a block. Once I got inside I realized that photos I had seen on TA were photoshoped professional pictures to make the dining area seem a lot bigger then it actually is. It is actually about what I am used to at the Days Inn. When I got to the room is when I trully realized just how much I had been fooled. Even though the room was listed as non smoking, there was a definite musty smoke smell when I walked into the room. When I turned on the lights I immediately noticed cigarette burn holes in the bed spred. There was also a large knife slash in the bed spred as well. The bed itself was one of the most uncomfortable beds I have ever laid on. Both me and my son could not sleep on it at all and woke up with back pain in the middle of the night. I spent the rest of the night awake sitting on the couch that was in the room. Among other things, the bathroom door would not latch and my room key did not work most of the time; but the one thing that really surpised me was the wall paint color. Can you believe "Canary Yellow"? I felt like I had gone back in time to the 60s or maybe was in a cheap motel down in Mexico. Come on guys, at least update the paint job.And last but not least was the free breakfast, which many reviewers raved about and was the main thing that convinced me to spend $20 extra a night.  Well, it is just your normal run of your mill continental breakfast that you will get anywhere else, with the addition of eggs and sausage sticks. But honestly,  the sausage sticks tasted like they were made from artificial meat and the eggs tasted like they were made from reconstituted powdered dehydrated eggs. I am not saying that it was worse then any other budget hotel, just that it is not anything special that sets this hotel apart fron any other hotel like Days Inn, Comfort Inn, etc.Okay, now for the few good things about this hotel. The bathroom was nice and felt modern. The shower was roomy and nice. There was a nice office table and plush swivel rolling office chair. The hide-a-bed couch was a nice addition (King room. Not sure if they have this in the double queen rooms). The room also had a large size compact fridge and a microwave.The bottom line is, this a standard run of the mill budget hotel which caters to the traveling budget business class. Quality might be in the name, but that is where it stops.More</t>
   </si>
   <si>
-    <t>nachoywanda</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r225734246-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -484,7 +613,40 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>BH1951</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r223062205-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>223062205</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>Excellent spot to spend a few days</t>
+  </si>
+  <si>
+    <t>My sister and I had cancelled a room in Houston and decided to come straight back to the Arlington area a day early when we were on vacation, the hotels we were going to stay in where totally booked. Mr Patel and his crew found us a room and made us feel very welcome. the room was clean, the beds comfortable and the rate extremely reasonable.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r212384476-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>212384476</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel near Cowboy's Stadium</t>
+  </si>
+  <si>
+    <t>This is a great value and a nice place to stay...if you're coming to a Cowboy's Game!  Clean, nice, great staff, and the best value in town for Cowboy's stadium...good breakfast too!  Anything close to the stadium costs a fortune...but this is a great option.  Very well run and a great atmosphere!</t>
+  </si>
+  <si>
+    <t>November 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r211265514-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
@@ -508,9 +670,6 @@
     <t>We traveled to Grand Prairie, TX from our home in Colorado to attend the funeral of my wife's mom. Naturally, all were on edge given the circumstances. When we arrived at the Quality Inn on Monday evening, the check-in was smooth and courteous, For the next 3 days, everyone that we encountered could not have been more helpful and friendly. We certainly needed that! We used to live in Grand Prairie and it was good to be back "home". Good people work at the Quality Inn &amp; Suites, They have a great complimentary breakfast that adds to the enjoyment. Don't think twice about choosing this hotel. YOU WON'T BE DISAPPOINTED!More</t>
   </si>
   <si>
-    <t>Caroline M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r208122003-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -529,9 +688,6 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t>Geneve M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r202331999-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -550,7 +706,37 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>Moses123456</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r193071160-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>193071160</t>
+  </si>
+  <si>
+    <t>02/04/2014</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>The room we nice and clea. Great space.  Breakfast was nice and I especially love the back gazebo to smoke in. The staff were freindly,nothing exceeding, housekeepers disregard dnd signs and knock before 11 but other then that, it was great!</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r158282919-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>158282919</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here for buisness and really enjoyed it. Price for value seemed ok. Nice rooms, service. I'll return when in area looking for this price range. Plenty of choices for eating out and types of food.  Easy access.  The one thing I would change is the shuttle availability and times. For my needs, the shuttle did not fit in well with early closing and late opening. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r149598793-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
@@ -571,9 +757,6 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t>Richard J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r148162281-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -589,9 +772,6 @@
     <t>Front desk, housekeeping and breakfast bar were all very good.  The property was well kept and bathroom clean and comfortable beds.  We stayed for four nights while visiting relatives and this was our third time at this hotel.  It is a two story building without an elevator.  The only problem we discovered was the very dirty carpet, which became apparent when you get in the shower after walking barefoot on the carpet and the dirt washes off in the shower.  The room also has a sofa and nice work desk and 32" flat screen tv.</t>
   </si>
   <si>
-    <t>linfin11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r130768474-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -610,7 +790,46 @@
     <t>May 2012</t>
   </si>
   <si>
-    <t>J-Thang</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r115811643-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>115811643</t>
+  </si>
+  <si>
+    <t>07/26/2011</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Our trip was a quick one and just wanted a quiet place to stay with our two grandsons on our way back home. We were greeted with a smile, given complimentary water and towels for the pool. The rooms were so clean as were the linens and bedspreads. Never saw a bug of any kind, inside or out. Beds were so comfortable! The carpets were also very clean and the air conditioner worked great. The pool was awesome and sparkling. We could have never stayed in a cleaner place, even in a 5 star hotel! This one is to be commended. The only thing I suggest is to shut the doors to laundry rooms as you have to pass them if going to your room on first floor, otherwise I only wish I could find a Quality Inn in Galveston this clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Our trip was a quick one and just wanted a quiet place to stay with our two grandsons on our way back home. We were greeted with a smile, given complimentary water and towels for the pool. The rooms were so clean as were the linens and bedspreads. Never saw a bug of any kind, inside or out. Beds were so comfortable! The carpets were also very clean and the air conditioner worked great. The pool was awesome and sparkling. We could have never stayed in a cleaner place, even in a 5 star hotel! This one is to be commended. The only thing I suggest is to shut the doors to laundry rooms as you have to pass them if going to your room on first floor, otherwise I only wish I could find a Quality Inn in Galveston this clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r103054070-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>103054070</t>
+  </si>
+  <si>
+    <t>04/06/2011</t>
+  </si>
+  <si>
+    <t>quiet, polite staff, all clean except FLOOR</t>
+  </si>
+  <si>
+    <t>My family stayed one night and had a comfortable time. the man behind the desk was polite. Not many people were staying so it was quiet. the good things were that the beds were spotless and had no smell, the air conditioner was POWERFUL, and the pillows were really soft and deep, nicer than my own pillows at home. the bad things were that even though they served breakfast from six to ten or eleven, a huge group of people came right at six and ate EVERYTHING, so when we went out to have breakfast it was slim pickings. i thought the staff would replenish the food, and did, but slowly. the other bad thing, and this is the worst, is that the floors were filthy. the wole room was perfectly clean, even fridge and microwave and the floors had been vaccumed, but they had NEVER gone over them with a carpet cleaner, you know with detergent and hot water. my two children were crawl racing eachother and when the got up off the floor their hands, knees, and tops of their feet were black. not grey, black. i looked at my own feet because i had taken my shoes off too, and they were black as well. i did enjoy my stay and everything else was really nice. but becasue of the floors i probably would stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>My family stayed one night and had a comfortable time. the man behind the desk was polite. Not many people were staying so it was quiet. the good things were that the beds were spotless and had no smell, the air conditioner was POWERFUL, and the pillows were really soft and deep, nicer than my own pillows at home. the bad things were that even though they served breakfast from six to ten or eleven, a huge group of people came right at six and ate EVERYTHING, so when we went out to have breakfast it was slim pickings. i thought the staff would replenish the food, and did, but slowly. the other bad thing, and this is the worst, is that the floors were filthy. the wole room was perfectly clean, even fridge and microwave and the floors had been vaccumed, but they had NEVER gone over them with a carpet cleaner, you know with detergent and hot water. my two children were crawl racing eachother and when the got up off the floor their hands, knees, and tops of their feet were black. not grey, black. i looked at my own feet because i had taken my shoes off too, and they were black as well. i did enjoy my stay and everything else was really nice. but becasue of the floors i probably would stay somewhere else.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r80022951-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
@@ -631,9 +850,6 @@
     <t>September 2010</t>
   </si>
   <si>
-    <t>usmclape</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r48197542-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -653,9 +869,6 @@
   </si>
   <si>
     <t>First let me start by saying that my stay at your hotel at 3891 South Great Southwest Parkway, Grand Prairie TX was a good one.  I was there (10-15-09 thru 10-18-09) with two other couples.  We had a very good visit to the Dallas metro area.  BUT I will probably not be staying at THAT hotel or any other Quality Inn Suites ever again!  Not because the stay was not good or not because there wasn't an elevator or not because the breakfast wasn't any good!  The only reason is that the YOUR STAFF doesn't know and apparently doesn't care to tell me the truth about what happen to the items that I had left in my room(225) and that they SAID they were going to ship them to me.  I had left a reading book and a notebook there that Sunday morning (10-18-09).  When I called back on Monday(10-19-09) and ask about the items, they told me that house keeping had brought  the items to the front desk and asked how I wanted to pick them up?  I live in North LIttle Rock, AR and I needed them to shipped to me.  I called FedX and they said that the hotel had to be the one to call and set up the pick-up.  So called back and spoke with a nice young lady name Stephanie who took my credit card information, name and phone number.  She assured me that...First let me start by saying that my stay at your hotel at 3891 South Great Southwest Parkway, Grand Prairie TX was a good one.  I was there (10-15-09 thru 10-18-09) with two other couples.  We had a very good visit to the Dallas metro area.  BUT I will probably not be staying at THAT hotel or any other Quality Inn Suites ever again!  Not because the stay was not good or not because there wasn't an elevator or not because the breakfast wasn't any good!  The only reason is that the YOUR STAFF doesn't know and apparently doesn't care to tell me the truth about what happen to the items that I had left in my room(225) and that they SAID they were going to ship them to me.  I had left a reading book and a notebook there that Sunday morning (10-18-09).  When I called back on Monday(10-19-09) and ask about the items, they told me that house keeping had brought  the items to the front desk and asked how I wanted to pick them up?  I live in North LIttle Rock, AR and I needed them to shipped to me.  I called FedX and they said that the hotel had to be the one to call and set up the pick-up.  So called back and spoke with a nice young lady name Stephanie who took my credit card information, name and phone number.  She assured me that I would probably get the package in about three days.  I have called back several times inquiring about my stuff and no one knows anything and always says someone else will call me back but they never do.  They always know the items by name, but don't know what happen to them.  They don't know when they were shipped or if they were shipped.  It's now Saturday (10-31-09) and I still DON'T have my things and no one has called and told me anything about them!!  Ralph L. Nelson [--]  RNelson@littlerock.orgMore</t>
-  </si>
-  <si>
-    <t>Lori Jeannine</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d106996-r7709839-Quality_Inn_Suites-Grand_Prairie_Texas.html</t>
@@ -1178,47 +1391,43 @@
       <c r="A2" t="n">
         <v>37694</v>
       </c>
-      <c r="B2" t="n">
-        <v>173932</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1232,66 +1441,62 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37694</v>
       </c>
-      <c r="B3" t="n">
-        <v>61786</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1299,54 +1504,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37694</v>
       </c>
-      <c r="B4" t="n">
-        <v>70545</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1360,66 +1561,62 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37694</v>
       </c>
-      <c r="B5" t="n">
-        <v>1436</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
       <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1427,54 +1624,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37694</v>
       </c>
-      <c r="B6" t="n">
-        <v>173933</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1488,131 +1681,117 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37694</v>
       </c>
-      <c r="B7" t="n">
-        <v>173934</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>84</v>
-      </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37694</v>
       </c>
-      <c r="B8" t="n">
-        <v>173935</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
-      <c r="S8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1620,64 +1799,62 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37694</v>
       </c>
-      <c r="B9" t="n">
-        <v>29854</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1685,51 +1862,51 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37694</v>
       </c>
-      <c r="B10" t="n">
-        <v>173936</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -1742,64 +1919,60 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37694</v>
       </c>
-      <c r="B11" t="n">
-        <v>173937</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1807,115 +1980,113 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37694</v>
       </c>
-      <c r="B12" t="n">
-        <v>44122</v>
-      </c>
-      <c r="C12" t="s">
-        <v>119</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37694</v>
       </c>
-      <c r="B13" t="n">
-        <v>173938</v>
-      </c>
-      <c r="C13" t="s">
-        <v>125</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1929,66 +2100,62 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37694</v>
       </c>
-      <c r="B14" t="n">
-        <v>173939</v>
-      </c>
-      <c r="C14" t="s">
-        <v>131</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
       <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1996,116 +2163,108 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37694</v>
       </c>
-      <c r="B15" t="n">
-        <v>173940</v>
-      </c>
-      <c r="C15" t="s">
-        <v>138</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="O15" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37694</v>
       </c>
-      <c r="B16" t="n">
-        <v>173941</v>
-      </c>
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>153</v>
-      </c>
-      <c r="O16" t="s">
-        <v>91</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -2118,67 +2277,57 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37694</v>
       </c>
-      <c r="B17" t="n">
-        <v>173942</v>
-      </c>
-      <c r="C17" t="s">
-        <v>154</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -2189,67 +2338,59 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37694</v>
       </c>
-      <c r="B18" t="n">
-        <v>46028</v>
-      </c>
-      <c r="C18" t="s">
-        <v>162</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="O18" t="s">
-        <v>91</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
         <v>4</v>
       </c>
       <c r="R18" t="n">
         <v>4</v>
       </c>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>4</v>
@@ -2260,70 +2401,60 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37694</v>
       </c>
-      <c r="B19" t="n">
-        <v>101573</v>
-      </c>
-      <c r="C19" t="s">
-        <v>169</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="O19" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2331,344 +2462,290 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37694</v>
       </c>
-      <c r="B20" t="n">
-        <v>173943</v>
-      </c>
-      <c r="C20" t="s">
-        <v>176</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="O20" t="s">
-        <v>91</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37694</v>
       </c>
-      <c r="B21" t="n">
-        <v>14471</v>
-      </c>
-      <c r="C21" t="s">
-        <v>183</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37694</v>
       </c>
-      <c r="B22" t="n">
-        <v>173944</v>
-      </c>
-      <c r="C22" t="s">
-        <v>189</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="J22" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="L22" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
-      <c r="N22" t="s">
-        <v>195</v>
-      </c>
-      <c r="O22" t="s">
-        <v>145</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37694</v>
       </c>
-      <c r="B23" t="n">
-        <v>173945</v>
-      </c>
-      <c r="C23" t="s">
-        <v>196</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="J23" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="K23" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="L23" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37694</v>
       </c>
-      <c r="B24" t="n">
-        <v>173946</v>
-      </c>
-      <c r="C24" t="s">
-        <v>203</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="J24" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="O24" t="s">
-        <v>145</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
         <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2676,78 +2753,1094 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37694</v>
       </c>
-      <c r="B25" t="n">
-        <v>173947</v>
-      </c>
-      <c r="C25" t="s">
-        <v>211</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="J25" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="K25" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="L25" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s">
-        <v>91</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>3</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K26" t="s">
+        <v>194</v>
+      </c>
+      <c r="L26" t="s">
+        <v>195</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O26" t="s">
+        <v>109</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" t="s">
+        <v>200</v>
+      </c>
+      <c r="L27" t="s">
+        <v>201</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>202</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" t="s">
+        <v>207</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" t="s">
+        <v>212</v>
+      </c>
+      <c r="L29" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>214</v>
+      </c>
+      <c r="O29" t="s">
+        <v>109</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
         <v>216</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K30" t="s">
+        <v>219</v>
+      </c>
+      <c r="L30" t="s">
+        <v>220</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>221</v>
+      </c>
+      <c r="O30" t="s">
+        <v>109</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>223</v>
+      </c>
+      <c r="J31" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" t="s">
+        <v>225</v>
+      </c>
+      <c r="L31" t="s">
+        <v>226</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>227</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>229</v>
+      </c>
+      <c r="J32" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" t="s">
+        <v>231</v>
+      </c>
+      <c r="L32" t="s">
+        <v>232</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>233</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" t="s">
+        <v>236</v>
+      </c>
+      <c r="K33" t="s">
+        <v>237</v>
+      </c>
+      <c r="L33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>240</v>
+      </c>
+      <c r="J34" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" t="s">
+        <v>242</v>
+      </c>
+      <c r="L34" t="s">
+        <v>243</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>244</v>
+      </c>
+      <c r="O34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>246</v>
+      </c>
+      <c r="J35" t="s">
+        <v>247</v>
+      </c>
+      <c r="K35" t="s">
+        <v>248</v>
+      </c>
+      <c r="L35" t="s">
+        <v>249</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>244</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>251</v>
+      </c>
+      <c r="J36" t="s">
+        <v>252</v>
+      </c>
+      <c r="K36" t="s">
+        <v>253</v>
+      </c>
+      <c r="L36" t="s">
+        <v>254</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>255</v>
+      </c>
+      <c r="O36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>257</v>
+      </c>
+      <c r="J37" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" t="s">
+        <v>259</v>
+      </c>
+      <c r="L37" t="s">
+        <v>260</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>261</v>
+      </c>
+      <c r="O37" t="s">
+        <v>109</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>263</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>264</v>
+      </c>
+      <c r="J38" t="s">
+        <v>265</v>
+      </c>
+      <c r="K38" t="s">
+        <v>266</v>
+      </c>
+      <c r="L38" t="s">
+        <v>267</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>268</v>
+      </c>
+      <c r="O38" t="s">
+        <v>109</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>270</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>271</v>
+      </c>
+      <c r="J39" t="s">
+        <v>272</v>
+      </c>
+      <c r="K39" t="s">
+        <v>273</v>
+      </c>
+      <c r="L39" t="s">
+        <v>274</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>275</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" t="s">
+        <v>278</v>
+      </c>
+      <c r="K40" t="s">
+        <v>279</v>
+      </c>
+      <c r="L40" t="s">
+        <v>280</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>281</v>
+      </c>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37694</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>283</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>284</v>
+      </c>
+      <c r="J41" t="s">
+        <v>285</v>
+      </c>
+      <c r="K41" t="s">
+        <v>286</v>
+      </c>
+      <c r="L41" t="s">
+        <v>287</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>288</v>
+      </c>
+      <c r="O41" t="s">
+        <v>109</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
